--- a/Code/Results/Cases/Case_5_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.627639804735452</v>
+        <v>0.8337083923857449</v>
       </c>
       <c r="C2">
-        <v>0.7965149267048446</v>
+        <v>0.2513404471783076</v>
       </c>
       <c r="D2">
-        <v>0.02801467919253753</v>
+        <v>0.009775792956261853</v>
       </c>
       <c r="E2">
-        <v>1.44917171568855</v>
+        <v>0.4254114885864624</v>
       </c>
       <c r="F2">
-        <v>0.5674724864033678</v>
+        <v>0.4674185242574538</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.1629377435422334</v>
+        <v>0.2905544193914125</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5934702961110929</v>
+        <v>0.7993426859598713</v>
       </c>
       <c r="O2">
-        <v>1.563981214777186</v>
+        <v>1.464486666278532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.286447171474435</v>
+        <v>0.7296308337800497</v>
       </c>
       <c r="C3">
-        <v>0.6967734664717113</v>
+        <v>0.2205598746211024</v>
       </c>
       <c r="D3">
-        <v>0.02476674042733151</v>
+        <v>0.008679553284519415</v>
       </c>
       <c r="E3">
-        <v>1.243332042462441</v>
+        <v>0.3710218854530609</v>
       </c>
       <c r="F3">
-        <v>0.5041770492870228</v>
+        <v>0.4560650490907463</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.1571165381997979</v>
+        <v>0.2932413434292371</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5979341872432613</v>
+        <v>0.8024938452141441</v>
       </c>
       <c r="O3">
-        <v>1.400915812752714</v>
+        <v>1.440259507361134</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.077391894841497</v>
+        <v>0.6655983624438591</v>
       </c>
       <c r="C4">
-        <v>0.6356879571494858</v>
+        <v>0.2015752291992499</v>
       </c>
       <c r="D4">
-        <v>0.02276695678128249</v>
+        <v>0.008002938075605925</v>
       </c>
       <c r="E4">
-        <v>1.119428023055676</v>
+        <v>0.3377214407544784</v>
       </c>
       <c r="F4">
-        <v>0.4666176921246716</v>
+        <v>0.4495041414594994</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.1542691211435852</v>
+        <v>0.295163531058261</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6015382386355483</v>
+        <v>0.8047950743569103</v>
       </c>
       <c r="O4">
-        <v>1.30504385814595</v>
+        <v>1.4267284468892</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.992271832662908</v>
+        <v>0.6394734554434365</v>
       </c>
       <c r="C5">
-        <v>0.6108203358870128</v>
+        <v>0.1938175921240486</v>
       </c>
       <c r="D5">
-        <v>0.02195050903638318</v>
+        <v>0.007726350409907212</v>
       </c>
       <c r="E5">
-        <v>1.069464898220204</v>
+        <v>0.3241732045882486</v>
       </c>
       <c r="F5">
-        <v>0.4516102417141639</v>
+        <v>0.4469332072758974</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.1532787567780751</v>
+        <v>0.2960150615022421</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.60321549423562</v>
+        <v>0.8058251047535592</v>
       </c>
       <c r="O5">
-        <v>1.266949677568761</v>
+        <v>1.421550883858998</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.978140967298003</v>
+        <v>0.6351335866031036</v>
       </c>
       <c r="C6">
-        <v>0.6066922201916896</v>
+        <v>0.1925281654253581</v>
       </c>
       <c r="D6">
-        <v>0.02181484333744521</v>
+        <v>0.007680371904793759</v>
       </c>
       <c r="E6">
-        <v>1.061197862240135</v>
+        <v>0.3219248010470466</v>
       </c>
       <c r="F6">
-        <v>0.4491354509623946</v>
+        <v>0.4465124945792738</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.1531242154120385</v>
+        <v>0.2961605699614296</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6035063608924318</v>
+        <v>0.806001716652986</v>
       </c>
       <c r="O6">
-        <v>1.260680376771717</v>
+        <v>1.420711426733703</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.076243694632808</v>
+        <v>0.6652461574408051</v>
       </c>
       <c r="C7">
-        <v>0.6353524993524218</v>
+        <v>0.2014706927276677</v>
       </c>
       <c r="D7">
-        <v>0.02275595219044391</v>
+        <v>0.007999211374542625</v>
       </c>
       <c r="E7">
-        <v>1.118752182035621</v>
+        <v>0.3375386380836005</v>
       </c>
       <c r="F7">
-        <v>0.4664141264474608</v>
+        <v>0.4494690537591381</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.1542550928055775</v>
+        <v>0.2951747392282904</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6015600249925939</v>
+        <v>0.8048085919793095</v>
       </c>
       <c r="O7">
-        <v>1.304526281629563</v>
+        <v>1.426657260347412</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.509881354045831</v>
+        <v>0.7978497558006552</v>
       </c>
       <c r="C8">
-        <v>0.7620828218061035</v>
+        <v>0.2407451076477685</v>
       </c>
       <c r="D8">
-        <v>0.02689585551570417</v>
+        <v>0.009398553761698736</v>
       </c>
       <c r="E8">
-        <v>1.377622792839873</v>
+        <v>0.40663706359922</v>
       </c>
       <c r="F8">
-        <v>0.5453590110796114</v>
+        <v>0.4634184375461388</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.1607717848406836</v>
+        <v>0.2914241671066407</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5948250102420047</v>
+        <v>0.8003532306202743</v>
       </c>
       <c r="O8">
-        <v>1.506815067881831</v>
+        <v>1.455853091226174</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.365662155726284</v>
+        <v>1.056828702488701</v>
       </c>
       <c r="C9">
-        <v>1.012547202554629</v>
+        <v>0.3170807680723442</v>
       </c>
       <c r="D9">
-        <v>0.03497742240849533</v>
+        <v>0.01211383117156828</v>
       </c>
       <c r="E9">
-        <v>1.909771834426749</v>
+        <v>0.5429856130370609</v>
       </c>
       <c r="F9">
-        <v>0.7119709170680864</v>
+        <v>0.4940502139279914</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1799395150071277</v>
+        <v>0.2862432947631497</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5888782714157443</v>
+        <v>0.7945188496768907</v>
       </c>
       <c r="O9">
-        <v>1.941858445260976</v>
+        <v>1.52385325336698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.00073618516268</v>
+        <v>1.246425377449555</v>
       </c>
       <c r="C10">
-        <v>1.198859131315032</v>
+        <v>0.3727480738894542</v>
       </c>
       <c r="D10">
-        <v>0.04090477476698595</v>
+        <v>0.01409015386830248</v>
       </c>
       <c r="E10">
-        <v>2.323265866092328</v>
+        <v>0.6438151142503443</v>
       </c>
       <c r="F10">
-        <v>0.8437863838079664</v>
+        <v>0.5185874856690162</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.1988571719649634</v>
+        <v>0.2837798657615132</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5895537272887168</v>
+        <v>0.7919967240460863</v>
       </c>
       <c r="O10">
-        <v>2.291923265117219</v>
+        <v>1.580482046595961</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.291785284674631</v>
+        <v>1.332525869809217</v>
       </c>
       <c r="C11">
-        <v>1.284398272813405</v>
+        <v>0.3979822690664605</v>
       </c>
       <c r="D11">
-        <v>0.04360238390640347</v>
+        <v>0.01498499671310327</v>
       </c>
       <c r="E11">
-        <v>2.518247433866151</v>
+        <v>0.6898576372912117</v>
       </c>
       <c r="F11">
-        <v>0.9063445466364044</v>
+        <v>0.5301989715296287</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2087460522528986</v>
+        <v>0.2829546248018744</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5911072767709697</v>
+        <v>0.7912315817689262</v>
       </c>
       <c r="O11">
-        <v>2.459545328206104</v>
+        <v>1.607717883833431</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.402377785021429</v>
+        <v>1.365107740544488</v>
       </c>
       <c r="C12">
-        <v>1.316929132770269</v>
+        <v>0.4075248725972642</v>
       </c>
       <c r="D12">
-        <v>0.0446243888154001</v>
+        <v>0.01532322634214722</v>
       </c>
       <c r="E12">
-        <v>2.593264461966697</v>
+        <v>0.7073201664084365</v>
       </c>
       <c r="F12">
-        <v>0.9304580043950637</v>
+        <v>0.5346611084532924</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2126969531606875</v>
+        <v>0.2826849136235907</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5918886368532128</v>
+        <v>0.7909967253710448</v>
       </c>
       <c r="O12">
-        <v>2.524388442581142</v>
+        <v>1.618245450402526</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.378541688586608</v>
+        <v>1.358091672766079</v>
       </c>
       <c r="C13">
-        <v>1.309916394426978</v>
+        <v>0.4054702855544861</v>
       </c>
       <c r="D13">
-        <v>0.04440425514378887</v>
+        <v>0.0152504108554794</v>
       </c>
       <c r="E13">
-        <v>2.577052284854418</v>
+        <v>0.7035580537039294</v>
       </c>
       <c r="F13">
-        <v>0.9252450110317341</v>
+        <v>0.5336972032175282</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.21183651574135</v>
+        <v>0.2827410926642244</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5917115367309833</v>
+        <v>0.7910448658780354</v>
       </c>
       <c r="O13">
-        <v>2.510359661760361</v>
+        <v>1.615968606099898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.300875785188623</v>
+        <v>1.335206858251922</v>
       </c>
       <c r="C14">
-        <v>1.287071658137108</v>
+        <v>0.3987676073635384</v>
       </c>
       <c r="D14">
-        <v>0.04368645336528232</v>
+        <v>0.01501283579332835</v>
       </c>
       <c r="E14">
-        <v>2.524394246090452</v>
+        <v>0.6912937322958186</v>
       </c>
       <c r="F14">
-        <v>0.9083195657997152</v>
+        <v>0.5305647662509045</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2090668305034633</v>
+        <v>0.282931576132345</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.591167606745401</v>
+        <v>0.7912111603729244</v>
       </c>
       <c r="O14">
-        <v>2.464851585622569</v>
+        <v>1.608579694783771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.253354661408707</v>
+        <v>1.32118627963456</v>
       </c>
       <c r="C15">
-        <v>1.273097536881153</v>
+        <v>0.3946603189524467</v>
       </c>
       <c r="D15">
-        <v>0.04324685120131022</v>
+        <v>0.01486723170828697</v>
       </c>
       <c r="E15">
-        <v>2.492299750057413</v>
+        <v>0.6837850897021269</v>
       </c>
       <c r="F15">
-        <v>0.8980090683631516</v>
+        <v>0.5286545535408891</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.207397853125407</v>
+        <v>0.2830538345589986</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5908600084725322</v>
+        <v>0.7913201663712641</v>
       </c>
       <c r="O15">
-        <v>2.437159931795804</v>
+        <v>1.604081689686353</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.981764464170851</v>
+        <v>1.240795423983286</v>
       </c>
       <c r="C16">
-        <v>1.19328690737143</v>
+        <v>0.3710971472556253</v>
       </c>
       <c r="D16">
-        <v>0.04072852914798375</v>
+        <v>0.01403158724234999</v>
       </c>
       <c r="E16">
-        <v>2.310677649513579</v>
+        <v>0.6408098216017208</v>
       </c>
       <c r="F16">
-        <v>0.8397545046690169</v>
+        <v>0.5178377328701629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.1982385337348553</v>
+        <v>0.2838397678915605</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5894784342958985</v>
+        <v>0.7920544121841147</v>
       </c>
       <c r="O16">
-        <v>2.281150920627056</v>
+        <v>1.578731959610508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.815750405223639</v>
+        <v>1.191439452137672</v>
       </c>
       <c r="C17">
-        <v>1.144544352194032</v>
+        <v>0.356618915856302</v>
       </c>
       <c r="D17">
-        <v>0.03918413513398633</v>
+        <v>0.01351785414180284</v>
       </c>
       <c r="E17">
-        <v>2.201149267543528</v>
+        <v>0.614492117360868</v>
       </c>
       <c r="F17">
-        <v>0.8047163600937495</v>
+        <v>0.5113174117756216</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.1929629743411461</v>
+        <v>0.2843977906168895</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.58895956787552</v>
+        <v>0.7926026821403127</v>
       </c>
       <c r="O17">
-        <v>2.18770085864989</v>
+        <v>1.563559830715832</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.720461367442851</v>
+        <v>1.163037346760632</v>
       </c>
       <c r="C18">
-        <v>1.11658106025331</v>
+        <v>0.3482830426630414</v>
       </c>
       <c r="D18">
-        <v>0.03829593530613806</v>
+        <v>0.01322197492827826</v>
       </c>
       <c r="E18">
-        <v>2.138786130820904</v>
+        <v>0.599371184180427</v>
       </c>
       <c r="F18">
-        <v>0.7848042199899226</v>
+        <v>0.5076093610925767</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.1900479660137258</v>
+        <v>0.2847465347676881</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5887775378652833</v>
+        <v>0.7929540094432923</v>
       </c>
       <c r="O18">
-        <v>2.134728441572946</v>
+        <v>1.554971958593853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.688230133339971</v>
+        <v>1.153418539989332</v>
       </c>
       <c r="C19">
-        <v>1.107124812833632</v>
+        <v>0.3454592271489503</v>
       </c>
       <c r="D19">
-        <v>0.03799521391481164</v>
+        <v>0.01312172847342907</v>
       </c>
       <c r="E19">
-        <v>2.117774626845829</v>
+        <v>0.5942542341585124</v>
       </c>
       <c r="F19">
-        <v>0.7781022154510424</v>
+        <v>0.5063611227276823</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.1890808683317573</v>
+        <v>0.2848693759781113</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5887354961749054</v>
+        <v>0.7930791441920206</v>
       </c>
       <c r="O19">
-        <v>2.116921731508199</v>
+        <v>1.552088025037477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.83340193062503</v>
+        <v>1.196694922610163</v>
       </c>
       <c r="C20">
-        <v>1.149725434975863</v>
+        <v>0.358161016943626</v>
       </c>
       <c r="D20">
-        <v>0.03934852666299804</v>
+        <v>0.0135725828136799</v>
       </c>
       <c r="E20">
-        <v>2.212741755559279</v>
+        <v>0.6172919782788426</v>
       </c>
       <c r="F20">
-        <v>0.8084209488281857</v>
+        <v>0.5120071331272982</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.1935120639375754</v>
+        <v>0.2843355103097842</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5890026577627339</v>
+        <v>0.7925405949250859</v>
       </c>
       <c r="O20">
-        <v>2.197567168734224</v>
+        <v>1.565160557957284</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.323677279404933</v>
+        <v>1.341929303930385</v>
       </c>
       <c r="C21">
-        <v>1.293777712657686</v>
+        <v>0.4007367020259949</v>
       </c>
       <c r="D21">
-        <v>0.04389727350266526</v>
+        <v>0.01508263458398318</v>
       </c>
       <c r="E21">
-        <v>2.539827446512177</v>
+        <v>0.6948953050097231</v>
       </c>
       <c r="F21">
-        <v>0.9132790380719058</v>
+        <v>0.5314830675911963</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2098745740367889</v>
+        <v>0.2828744627164674</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5913220159969796</v>
+        <v>0.791160826584516</v>
       </c>
       <c r="O21">
-        <v>2.478179881290373</v>
+        <v>1.610744176116469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.646344934825322</v>
+        <v>1.436716553556153</v>
       </c>
       <c r="C22">
-        <v>1.388749228578035</v>
+        <v>0.4284862748506271</v>
       </c>
       <c r="D22">
-        <v>0.04687310996925476</v>
+        <v>0.0160658694104896</v>
       </c>
       <c r="E22">
-        <v>2.760595096976573</v>
+        <v>0.745773246523612</v>
       </c>
       <c r="F22">
-        <v>0.9843091908844031</v>
+        <v>0.54459151569732</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2217820441854528</v>
+        <v>0.2821691408395779</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5939705086537685</v>
+        <v>0.7905789595269823</v>
       </c>
       <c r="O22">
-        <v>2.669641305220239</v>
+        <v>1.641783600532932</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.473900771272724</v>
+        <v>1.386139281823887</v>
       </c>
       <c r="C23">
-        <v>1.337976135581243</v>
+        <v>0.4136828405773372</v>
       </c>
       <c r="D23">
-        <v>0.04528446573952749</v>
+        <v>0.01554144244084199</v>
       </c>
       <c r="E23">
-        <v>2.642055902794453</v>
+        <v>0.718603418774137</v>
       </c>
       <c r="F23">
-        <v>0.946152084694134</v>
+        <v>0.5375603722156512</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2153079861609655</v>
+        <v>0.2825226460109533</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5924484186973586</v>
+        <v>0.7908602647480905</v>
       </c>
       <c r="O23">
-        <v>2.566657871846076</v>
+        <v>1.625102487608984</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.825421199404445</v>
+        <v>1.194319007484694</v>
       </c>
       <c r="C24">
-        <v>1.147382884205797</v>
+        <v>0.3574638708618636</v>
       </c>
       <c r="D24">
-        <v>0.03927420623161026</v>
+        <v>0.01354784162219858</v>
       </c>
       <c r="E24">
-        <v>2.207498917745312</v>
+        <v>0.6160261318754294</v>
       </c>
       <c r="F24">
-        <v>0.8067453861752085</v>
+        <v>0.5116951837697457</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.1932634546574441</v>
+        <v>0.2843635802579279</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5889828156927166</v>
+        <v>0.7925685520326624</v>
       </c>
       <c r="O24">
-        <v>2.193104275842899</v>
+        <v>1.564436449441331</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.133275780277927</v>
+        <v>0.9868843801821754</v>
       </c>
       <c r="C25">
-        <v>0.9444740805542153</v>
+        <v>0.2965030198498937</v>
       </c>
       <c r="D25">
-        <v>0.03279392284569838</v>
+        <v>0.01138246904334039</v>
       </c>
       <c r="E25">
-        <v>1.762460599541839</v>
+        <v>0.505994874012373</v>
       </c>
       <c r="F25">
-        <v>0.6654183350142944</v>
+        <v>0.4854091329161747</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.1739781220248169</v>
+        <v>0.2874102983668045</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5896489226792454</v>
+        <v>0.7957870164205758</v>
       </c>
       <c r="O25">
-        <v>1.819372386471713</v>
+        <v>1.50429474825043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8337083923857449</v>
+        <v>2.627639804735395</v>
       </c>
       <c r="C2">
-        <v>0.2513404471783076</v>
+        <v>0.7965149267050435</v>
       </c>
       <c r="D2">
-        <v>0.009775792956261853</v>
+        <v>0.02801467919253753</v>
       </c>
       <c r="E2">
-        <v>0.4254114885864624</v>
+        <v>1.449171715688522</v>
       </c>
       <c r="F2">
-        <v>0.4674185242574538</v>
+        <v>0.5674724864033536</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.2905544193914125</v>
+        <v>0.162937743542237</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7993426859598713</v>
+        <v>0.593470296111029</v>
       </c>
       <c r="O2">
-        <v>1.464486666278532</v>
+        <v>1.563981214777101</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7296308337800497</v>
+        <v>2.286447171474435</v>
       </c>
       <c r="C3">
-        <v>0.2205598746211024</v>
+        <v>0.696773466471484</v>
       </c>
       <c r="D3">
-        <v>0.008679553284519415</v>
+        <v>0.02476674042722138</v>
       </c>
       <c r="E3">
-        <v>0.3710218854530609</v>
+        <v>1.243332042462455</v>
       </c>
       <c r="F3">
-        <v>0.4560650490907463</v>
+        <v>0.5041770492870086</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.2932413434292371</v>
+        <v>0.1571165381997979</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8024938452141441</v>
+        <v>0.5979341872433181</v>
       </c>
       <c r="O3">
-        <v>1.440259507361134</v>
+        <v>1.400915812752714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6655983624438591</v>
+        <v>2.077391894841384</v>
       </c>
       <c r="C4">
-        <v>0.2015752291992499</v>
+        <v>0.6356879571493153</v>
       </c>
       <c r="D4">
-        <v>0.008002938075605925</v>
+        <v>0.02276695678116525</v>
       </c>
       <c r="E4">
-        <v>0.3377214407544784</v>
+        <v>1.11942802305569</v>
       </c>
       <c r="F4">
-        <v>0.4495041414594994</v>
+        <v>0.4666176921246503</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.295163531058261</v>
+        <v>0.1542691211435674</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8047950743569103</v>
+        <v>0.6015382386354773</v>
       </c>
       <c r="O4">
-        <v>1.4267284468892</v>
+        <v>1.305043858145979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6394734554434365</v>
+        <v>1.992271832662908</v>
       </c>
       <c r="C5">
-        <v>0.1938175921240486</v>
+        <v>0.6108203358868423</v>
       </c>
       <c r="D5">
-        <v>0.007726350409907212</v>
+        <v>0.02195050903630857</v>
       </c>
       <c r="E5">
-        <v>0.3241732045882486</v>
+        <v>1.069464898220204</v>
       </c>
       <c r="F5">
-        <v>0.4469332072758974</v>
+        <v>0.4516102417141639</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.2960150615022421</v>
+        <v>0.1532787567780716</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8058251047535592</v>
+        <v>0.6032154942356129</v>
       </c>
       <c r="O5">
-        <v>1.421550883858998</v>
+        <v>1.266949677568761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6351335866031036</v>
+        <v>1.978140967298117</v>
       </c>
       <c r="C6">
-        <v>0.1925281654253581</v>
+        <v>0.6066922201918317</v>
       </c>
       <c r="D6">
-        <v>0.007680371904793759</v>
+        <v>0.02181484333771877</v>
       </c>
       <c r="E6">
-        <v>0.3219248010470466</v>
+        <v>1.061197862240093</v>
       </c>
       <c r="F6">
-        <v>0.4465124945792738</v>
+        <v>0.4491354509624088</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.2961605699614296</v>
+        <v>0.1531242154120385</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.806001716652986</v>
+        <v>0.6035063608924247</v>
       </c>
       <c r="O6">
-        <v>1.420711426733703</v>
+        <v>1.260680376771717</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6652461574408051</v>
+        <v>2.076243694632836</v>
       </c>
       <c r="C7">
-        <v>0.2014706927276677</v>
+        <v>0.6353524993520523</v>
       </c>
       <c r="D7">
-        <v>0.007999211374542625</v>
+        <v>0.02275595219044746</v>
       </c>
       <c r="E7">
-        <v>0.3375386380836005</v>
+        <v>1.118752182035621</v>
       </c>
       <c r="F7">
-        <v>0.4494690537591381</v>
+        <v>0.4664141264474466</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.2951747392282904</v>
+        <v>0.1542550928055917</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8048085919793095</v>
+        <v>0.6015600249926578</v>
       </c>
       <c r="O7">
-        <v>1.426657260347412</v>
+        <v>1.304526281629563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7978497558006552</v>
+        <v>2.509881354045831</v>
       </c>
       <c r="C8">
-        <v>0.2407451076477685</v>
+        <v>0.7620828218056204</v>
       </c>
       <c r="D8">
-        <v>0.009398553761698736</v>
+        <v>0.02689585551581786</v>
       </c>
       <c r="E8">
-        <v>0.40663706359922</v>
+        <v>1.377622792839844</v>
       </c>
       <c r="F8">
-        <v>0.4634184375461388</v>
+        <v>0.5453590110795972</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.2914241671066407</v>
+        <v>0.1607717848406942</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8003532306202743</v>
+        <v>0.5948250102420047</v>
       </c>
       <c r="O8">
-        <v>1.455853091226174</v>
+        <v>1.506815067881831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.056828702488701</v>
+        <v>3.365662155726227</v>
       </c>
       <c r="C9">
-        <v>0.3170807680723442</v>
+        <v>1.012547202554543</v>
       </c>
       <c r="D9">
-        <v>0.01211383117156828</v>
+        <v>0.03497742240855217</v>
       </c>
       <c r="E9">
-        <v>0.5429856130370609</v>
+        <v>1.909771834426735</v>
       </c>
       <c r="F9">
-        <v>0.4940502139279914</v>
+        <v>0.7119709170680864</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.2862432947631497</v>
+        <v>0.1799395150071135</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7945188496768907</v>
+        <v>0.5888782714157372</v>
       </c>
       <c r="O9">
-        <v>1.52385325336698</v>
+        <v>1.941858445260976</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.246425377449555</v>
+        <v>4.000736185162737</v>
       </c>
       <c r="C10">
-        <v>0.3727480738894542</v>
+        <v>1.198859131315373</v>
       </c>
       <c r="D10">
-        <v>0.01409015386830248</v>
+        <v>0.04090477476709964</v>
       </c>
       <c r="E10">
-        <v>0.6438151142503443</v>
+        <v>2.323265866092314</v>
       </c>
       <c r="F10">
-        <v>0.5185874856690162</v>
+        <v>0.8437863838079664</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.2837798657615132</v>
+        <v>0.1988571719649599</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7919967240460863</v>
+        <v>0.5895537272887168</v>
       </c>
       <c r="O10">
-        <v>1.580482046595961</v>
+        <v>2.291923265117248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.332525869809217</v>
+        <v>4.291785284674518</v>
       </c>
       <c r="C11">
-        <v>0.3979822690664605</v>
+        <v>1.284398272813462</v>
       </c>
       <c r="D11">
-        <v>0.01498499671310327</v>
+        <v>0.04360238390640347</v>
       </c>
       <c r="E11">
-        <v>0.6898576372912117</v>
+        <v>2.518247433866165</v>
       </c>
       <c r="F11">
-        <v>0.5301989715296287</v>
+        <v>0.9063445466363902</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.2829546248018744</v>
+        <v>0.2087460522528879</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7912315817689262</v>
+        <v>0.5911072767710124</v>
       </c>
       <c r="O11">
-        <v>1.607717883833431</v>
+        <v>2.459545328206133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.365107740544488</v>
+        <v>4.402377785021486</v>
       </c>
       <c r="C12">
-        <v>0.4075248725972642</v>
+        <v>1.316929132770383</v>
       </c>
       <c r="D12">
-        <v>0.01532322634214722</v>
+        <v>0.04462438881533615</v>
       </c>
       <c r="E12">
-        <v>0.7073201664084365</v>
+        <v>2.593264461966726</v>
       </c>
       <c r="F12">
-        <v>0.5346611084532924</v>
+        <v>0.9304580043950779</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.2826849136235907</v>
+        <v>0.2126969531606875</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7909967253710448</v>
+        <v>0.5918886368532839</v>
       </c>
       <c r="O12">
-        <v>1.618245450402526</v>
+        <v>2.524388442581198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.358091672766079</v>
+        <v>4.378541688586495</v>
       </c>
       <c r="C13">
-        <v>0.4054702855544861</v>
+        <v>1.309916394426978</v>
       </c>
       <c r="D13">
-        <v>0.0152504108554794</v>
+        <v>0.04440425514388835</v>
       </c>
       <c r="E13">
-        <v>0.7035580537039294</v>
+        <v>2.57705228485446</v>
       </c>
       <c r="F13">
-        <v>0.5336972032175282</v>
+        <v>0.9252450110317341</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.2827410926642244</v>
+        <v>0.2118365157413322</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7910448658780354</v>
+        <v>0.5917115367309691</v>
       </c>
       <c r="O13">
-        <v>1.615968606099898</v>
+        <v>2.510359661760361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.335206858251922</v>
+        <v>4.300875785188396</v>
       </c>
       <c r="C14">
-        <v>0.3987676073635384</v>
+        <v>1.287071658136995</v>
       </c>
       <c r="D14">
-        <v>0.01501283579332835</v>
+        <v>0.04368645336505494</v>
       </c>
       <c r="E14">
-        <v>0.6912937322958186</v>
+        <v>2.524394246090438</v>
       </c>
       <c r="F14">
-        <v>0.5305647662509045</v>
+        <v>0.9083195657997294</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.282931576132345</v>
+        <v>0.2090668305034526</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7912111603729244</v>
+        <v>0.5911676067453868</v>
       </c>
       <c r="O14">
-        <v>1.608579694783771</v>
+        <v>2.46485158562254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.32118627963456</v>
+        <v>4.253354661408878</v>
       </c>
       <c r="C15">
-        <v>0.3946603189524467</v>
+        <v>1.273097536881437</v>
       </c>
       <c r="D15">
-        <v>0.01486723170828697</v>
+        <v>0.04324685120125338</v>
       </c>
       <c r="E15">
-        <v>0.6837850897021269</v>
+        <v>2.492299750057384</v>
       </c>
       <c r="F15">
-        <v>0.5286545535408891</v>
+        <v>0.8980090683631516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.2830538345589986</v>
+        <v>0.207397853125407</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7913201663712641</v>
+        <v>0.5908600084724611</v>
       </c>
       <c r="O15">
-        <v>1.604081689686353</v>
+        <v>2.437159931795833</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.240795423983286</v>
+        <v>3.981764464170965</v>
       </c>
       <c r="C16">
-        <v>0.3710971472556253</v>
+        <v>1.193286907371146</v>
       </c>
       <c r="D16">
-        <v>0.01403158724234999</v>
+        <v>0.04072852914787717</v>
       </c>
       <c r="E16">
-        <v>0.6408098216017208</v>
+        <v>2.310677649513579</v>
       </c>
       <c r="F16">
-        <v>0.5178377328701629</v>
+        <v>0.8397545046690169</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.2838397678915605</v>
+        <v>0.1982385337348518</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7920544121841147</v>
+        <v>0.5894784342958985</v>
       </c>
       <c r="O16">
-        <v>1.578731959610508</v>
+        <v>2.281150920627056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.191439452137672</v>
+        <v>3.815750405223753</v>
       </c>
       <c r="C17">
-        <v>0.356618915856302</v>
+        <v>1.144544352194231</v>
       </c>
       <c r="D17">
-        <v>0.01351785414180284</v>
+        <v>0.03918413513387975</v>
       </c>
       <c r="E17">
-        <v>0.614492117360868</v>
+        <v>2.201149267543499</v>
       </c>
       <c r="F17">
-        <v>0.5113174117756216</v>
+        <v>0.8047163600937353</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.2843977906168895</v>
+        <v>0.1929629743411461</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7926026821403127</v>
+        <v>0.5889595678755768</v>
       </c>
       <c r="O17">
-        <v>1.563559830715832</v>
+        <v>2.187700858649862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.163037346760632</v>
+        <v>3.720461367442965</v>
       </c>
       <c r="C18">
-        <v>0.3482830426630414</v>
+        <v>1.116581060253253</v>
       </c>
       <c r="D18">
-        <v>0.01322197492827826</v>
+        <v>0.03829593530625175</v>
       </c>
       <c r="E18">
-        <v>0.599371184180427</v>
+        <v>2.13878613082089</v>
       </c>
       <c r="F18">
-        <v>0.5076093610925767</v>
+        <v>0.7848042199899226</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.2847465347676881</v>
+        <v>0.1900479660137293</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7929540094432923</v>
+        <v>0.5887775378653402</v>
       </c>
       <c r="O18">
-        <v>1.554971958593853</v>
+        <v>2.134728441573003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.153418539989332</v>
+        <v>3.688230133339857</v>
       </c>
       <c r="C19">
-        <v>0.3454592271489503</v>
+        <v>1.107124812833632</v>
       </c>
       <c r="D19">
-        <v>0.01312172847342907</v>
+        <v>0.03799521391503191</v>
       </c>
       <c r="E19">
-        <v>0.5942542341585124</v>
+        <v>2.117774626845801</v>
       </c>
       <c r="F19">
-        <v>0.5063611227276823</v>
+        <v>0.7781022154510424</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.2848693759781113</v>
+        <v>0.1890808683317466</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7930791441920206</v>
+        <v>0.5887354961748912</v>
       </c>
       <c r="O19">
-        <v>1.552088025037477</v>
+        <v>2.116921731508199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.196694922610163</v>
+        <v>3.833401930625257</v>
       </c>
       <c r="C20">
-        <v>0.358161016943626</v>
+        <v>1.149725434975949</v>
       </c>
       <c r="D20">
-        <v>0.0135725828136799</v>
+        <v>0.0393485266629483</v>
       </c>
       <c r="E20">
-        <v>0.6172919782788426</v>
+        <v>2.212741755559279</v>
       </c>
       <c r="F20">
-        <v>0.5120071331272982</v>
+        <v>0.8084209488281999</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.2843355103097842</v>
+        <v>0.1935120639375754</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7925405949250859</v>
+        <v>0.5890026577627197</v>
       </c>
       <c r="O20">
-        <v>1.565160557957284</v>
+        <v>2.197567168734253</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.341929303930385</v>
+        <v>4.323677279404762</v>
       </c>
       <c r="C21">
-        <v>0.4007367020259949</v>
+        <v>1.293777712657743</v>
       </c>
       <c r="D21">
-        <v>0.01508263458398318</v>
+        <v>0.04389727350265815</v>
       </c>
       <c r="E21">
-        <v>0.6948953050097231</v>
+        <v>2.539827446512192</v>
       </c>
       <c r="F21">
-        <v>0.5314830675911963</v>
+        <v>0.9132790380719058</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.2828744627164674</v>
+        <v>0.2098745740367924</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.791160826584516</v>
+        <v>0.5913220159969796</v>
       </c>
       <c r="O21">
-        <v>1.610744176116469</v>
+        <v>2.478179881290458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.436716553556153</v>
+        <v>4.646344934825436</v>
       </c>
       <c r="C22">
-        <v>0.4284862748506271</v>
+        <v>1.38874922857832</v>
       </c>
       <c r="D22">
-        <v>0.0160658694104896</v>
+        <v>0.04687310996923344</v>
       </c>
       <c r="E22">
-        <v>0.745773246523612</v>
+        <v>2.760595096976587</v>
       </c>
       <c r="F22">
-        <v>0.54459151569732</v>
+        <v>0.9843091908844031</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.2821691408395779</v>
+        <v>0.2217820441854741</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7905789595269823</v>
+        <v>0.593970508653797</v>
       </c>
       <c r="O22">
-        <v>1.641783600532932</v>
+        <v>2.669641305220239</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.386139281823887</v>
+        <v>4.473900771272554</v>
       </c>
       <c r="C23">
-        <v>0.4136828405773372</v>
+        <v>1.337976135581187</v>
       </c>
       <c r="D23">
-        <v>0.01554144244084199</v>
+        <v>0.04528446573934275</v>
       </c>
       <c r="E23">
-        <v>0.718603418774137</v>
+        <v>2.642055902794439</v>
       </c>
       <c r="F23">
-        <v>0.5375603722156512</v>
+        <v>0.946152084694134</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.2825226460109533</v>
+        <v>0.2153079861609655</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7908602647480905</v>
+        <v>0.5924484186973444</v>
       </c>
       <c r="O23">
-        <v>1.625102487608984</v>
+        <v>2.566657871846104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.194319007484694</v>
+        <v>3.825421199404332</v>
       </c>
       <c r="C24">
-        <v>0.3574638708618636</v>
+        <v>1.14738288420574</v>
       </c>
       <c r="D24">
-        <v>0.01354784162219858</v>
+        <v>0.03927420623161026</v>
       </c>
       <c r="E24">
-        <v>0.6160261318754294</v>
+        <v>2.207498917745298</v>
       </c>
       <c r="F24">
-        <v>0.5116951837697457</v>
+        <v>0.8067453861752227</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.2843635802579279</v>
+        <v>0.1932634546574548</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7925685520326624</v>
+        <v>0.5889828156927308</v>
       </c>
       <c r="O24">
-        <v>1.564436449441331</v>
+        <v>2.193104275843012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9868843801821754</v>
+        <v>3.133275780277813</v>
       </c>
       <c r="C25">
-        <v>0.2965030198498937</v>
+        <v>0.9444740805544711</v>
       </c>
       <c r="D25">
-        <v>0.01138246904334039</v>
+        <v>0.03279392284558469</v>
       </c>
       <c r="E25">
-        <v>0.505994874012373</v>
+        <v>1.762460599541825</v>
       </c>
       <c r="F25">
-        <v>0.4854091329161747</v>
+        <v>0.6654183350143086</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.2874102983668045</v>
+        <v>0.1739781220248169</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7957870164205758</v>
+        <v>0.5896489226792312</v>
       </c>
       <c r="O25">
-        <v>1.50429474825043</v>
+        <v>1.819372386471741</v>
       </c>
     </row>
   </sheetData>
